--- a/doc/Help_text_progress.xlsx
+++ b/doc/Help_text_progress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Teddy/GitHub/PsPM/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teddy/GitHub/PsPM/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A834C5-C485-6C46-8E4E-41E7DAAA4BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0C152F-8266-B646-ACF1-81A582432CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="7320" windowWidth="25900" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="2180" windowWidth="25900" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Sorting Help Text" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="182">
   <si>
     <t>Sorting Help Text</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>❓</t>
+  </si>
+  <si>
+    <t>🚫</t>
   </si>
 </sst>
 </file>
@@ -1943,10 +1946,10 @@
   <dimension ref="A1:K169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B156" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E100" sqref="E100"/>
+      <selection pane="bottomRight" activeCell="F166" sqref="F166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5426,7 +5429,7 @@
         <v>12</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J100" s="5" t="s">
         <v>13</v>
@@ -5449,7 +5452,7 @@
         <v>13</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>13</v>
@@ -5461,7 +5464,7 @@
         <v>12</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J101" s="5" t="s">
         <v>13</v>
@@ -5484,7 +5487,7 @@
         <v>12</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>13</v>
@@ -5496,7 +5499,7 @@
         <v>13</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J102" s="5" t="s">
         <v>13</v>
@@ -5519,7 +5522,7 @@
         <v>12</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>13</v>
@@ -5531,7 +5534,7 @@
         <v>12</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J103" s="5" t="s">
         <v>13</v>
@@ -5554,7 +5557,7 @@
         <v>13</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>13</v>
@@ -5589,7 +5592,7 @@
         <v>12</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>13</v>
@@ -5601,7 +5604,7 @@
         <v>12</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J105" s="5" t="s">
         <v>13</v>
@@ -5624,7 +5627,7 @@
         <v>12</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>13</v>
@@ -5636,7 +5639,7 @@
         <v>12</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J106" s="5" t="s">
         <v>13</v>
@@ -5659,7 +5662,7 @@
         <v>12</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>13</v>
@@ -5671,7 +5674,7 @@
         <v>12</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J107" s="5" t="s">
         <v>13</v>
@@ -7759,7 +7762,7 @@
         <v>13</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>13</v>
@@ -7771,7 +7774,7 @@
         <v>12</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J167" s="5" t="s">
         <v>13</v>

--- a/doc/Help_text_progress.xlsx
+++ b/doc/Help_text_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teddy/GitHub/PsPM/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0C152F-8266-B646-ACF1-81A582432CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6507F369-2092-E640-888E-C9D325E59E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="2180" windowWidth="25900" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="2500" windowWidth="25900" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Sorting Help Text" sheetId="1" r:id="rId1"/>
@@ -1946,10 +1946,10 @@
   <dimension ref="A1:K169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F166" sqref="F166"/>
+      <selection pane="bottomRight" activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5300,19 +5300,19 @@
     </row>
     <row r="97" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>13</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="98" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>12</v>
@@ -5359,7 +5359,7 @@
         <v>12</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J98" s="5" t="s">
         <v>13</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="99" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="10" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>12</v>
@@ -5385,7 +5385,7 @@
         <v>12</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>12</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="100" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="10" t="s">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>12</v>
@@ -5414,13 +5414,13 @@
         <v>13</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>12</v>
@@ -5440,7 +5440,7 @@
     </row>
     <row r="101" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="10" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>12</v>
@@ -5449,7 +5449,7 @@
         <v>13</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>180</v>
@@ -5475,10 +5475,10 @@
     </row>
     <row r="102" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="10" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>13</v>
@@ -5487,19 +5487,19 @@
         <v>12</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J102" s="5" t="s">
         <v>13</v>
@@ -5510,7 +5510,7 @@
     </row>
     <row r="103" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="10" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>12</v>
@@ -5522,7 +5522,7 @@
         <v>12</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>13</v>
@@ -5534,7 +5534,7 @@
         <v>12</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J103" s="5" t="s">
         <v>13</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="104" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="10" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>12</v>
@@ -5554,10 +5554,10 @@
         <v>13</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>13</v>
@@ -5569,10 +5569,10 @@
         <v>12</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K104" s="5" t="s">
         <v>13</v>
@@ -5580,7 +5580,7 @@
     </row>
     <row r="105" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="10" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>12</v>
@@ -5592,7 +5592,7 @@
         <v>12</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>13</v>
@@ -5604,18 +5604,18 @@
         <v>12</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J105" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K105" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="10" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>12</v>
@@ -5627,7 +5627,7 @@
         <v>12</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>13</v>
@@ -5639,7 +5639,7 @@
         <v>12</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J106" s="5" t="s">
         <v>13</v>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="107" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="10" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>12</v>
@@ -5662,7 +5662,7 @@
         <v>12</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>13</v>
@@ -5674,7 +5674,7 @@
         <v>12</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J107" s="5" t="s">
         <v>13</v>
@@ -5685,7 +5685,7 @@
     </row>
     <row r="108" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="10" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>12</v>
@@ -5712,7 +5712,7 @@
         <v>13</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K108" s="5" t="s">
         <v>13</v>
@@ -5720,7 +5720,7 @@
     </row>
     <row r="109" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="10" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>12</v>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="110" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="10" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>12</v>
@@ -5790,7 +5790,7 @@
     </row>
     <row r="111" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="10" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>12</v>
@@ -5817,7 +5817,7 @@
         <v>13</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K111" s="5" t="s">
         <v>13</v>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="112" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="10" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>12</v>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="113" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="10" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>12</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="114" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="10" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>12</v>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="115" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="10" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>12</v>
@@ -5957,7 +5957,7 @@
         <v>13</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K115" s="5" t="s">
         <v>13</v>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="116" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="10" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>12</v>
@@ -6000,7 +6000,7 @@
     </row>
     <row r="117" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>12</v>
@@ -6035,7 +6035,7 @@
     </row>
     <row r="118" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>12</v>
@@ -6070,7 +6070,7 @@
     </row>
     <row r="119" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="10" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>12</v>
@@ -6088,10 +6088,10 @@
         <v>13</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I119" s="5" t="s">
         <v>13</v>
@@ -6105,7 +6105,7 @@
     </row>
     <row r="120" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="10" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>12</v>
@@ -6123,10 +6123,10 @@
         <v>13</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I120" s="5" t="s">
         <v>13</v>
@@ -6140,7 +6140,7 @@
     </row>
     <row r="121" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="10" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>12</v>
@@ -6158,10 +6158,10 @@
         <v>13</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I121" s="5" t="s">
         <v>13</v>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="122" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="10" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>12</v>
@@ -6210,7 +6210,7 @@
     </row>
     <row r="123" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="10" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>12</v>
@@ -6245,7 +6245,7 @@
     </row>
     <row r="124" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="10" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>12</v>
@@ -6263,7 +6263,7 @@
         <v>13</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>12</v>
@@ -6280,7 +6280,7 @@
     </row>
     <row r="125" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="10" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>12</v>
@@ -6315,7 +6315,7 @@
     </row>
     <row r="126" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="10" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>12</v>
@@ -6333,10 +6333,10 @@
         <v>13</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I126" s="5" t="s">
         <v>13</v>
@@ -6350,7 +6350,7 @@
     </row>
     <row r="127" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="10" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>12</v>
@@ -6368,10 +6368,10 @@
         <v>13</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I127" s="5" t="s">
         <v>13</v>
@@ -6385,7 +6385,7 @@
     </row>
     <row r="128" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="10" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>12</v>
@@ -6403,10 +6403,10 @@
         <v>13</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I128" s="5" t="s">
         <v>13</v>
@@ -6420,16 +6420,16 @@
     </row>
     <row r="129" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="10" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>13</v>
@@ -6438,7 +6438,7 @@
         <v>13</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>12</v>
@@ -6455,7 +6455,7 @@
     </row>
     <row r="130" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="10" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>12</v>
@@ -6464,7 +6464,7 @@
         <v>13</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>13</v>
@@ -6479,7 +6479,7 @@
         <v>12</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J130" s="5" t="s">
         <v>13</v>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="131" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>12</v>
@@ -6508,7 +6508,7 @@
         <v>13</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>12</v>
@@ -6525,10 +6525,10 @@
     </row>
     <row r="132" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="10" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>13</v>
@@ -6552,7 +6552,7 @@
         <v>13</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K132" s="5" t="s">
         <v>13</v>
@@ -6560,10 +6560,10 @@
     </row>
     <row r="133" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="10" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>13</v>
@@ -6595,16 +6595,16 @@
     </row>
     <row r="134" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="10" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>13</v>
@@ -6613,7 +6613,7 @@
         <v>13</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H134" s="5" t="s">
         <v>12</v>
@@ -6630,16 +6630,16 @@
     </row>
     <row r="135" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="10" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>13</v>
@@ -6660,12 +6660,12 @@
         <v>13</v>
       </c>
       <c r="K135" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="10" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>13</v>
@@ -6674,7 +6674,7 @@
         <v>13</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>13</v>
@@ -6683,7 +6683,7 @@
         <v>13</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H136" s="5" t="s">
         <v>12</v>
@@ -6700,16 +6700,16 @@
     </row>
     <row r="137" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="10" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>13</v>
@@ -6724,7 +6724,7 @@
         <v>12</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J137" s="5" t="s">
         <v>13</v>
@@ -6735,10 +6735,10 @@
     </row>
     <row r="138" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="10" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>13</v>
@@ -6770,7 +6770,7 @@
     </row>
     <row r="139" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="10" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>13</v>
@@ -6797,7 +6797,7 @@
         <v>13</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K139" s="5" t="s">
         <v>13</v>
@@ -6805,7 +6805,7 @@
     </row>
     <row r="140" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="10" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>13</v>
@@ -6829,7 +6829,7 @@
         <v>12</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J140" s="5" t="s">
         <v>13</v>
@@ -6840,7 +6840,7 @@
     </row>
     <row r="141" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="10" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>13</v>
@@ -6849,7 +6849,7 @@
         <v>13</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>13</v>
@@ -6870,12 +6870,12 @@
         <v>13</v>
       </c>
       <c r="K141" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="10" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>13</v>
@@ -6884,7 +6884,7 @@
         <v>13</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>13</v>
@@ -6893,7 +6893,7 @@
         <v>13</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H142" s="5" t="s">
         <v>12</v>
@@ -6905,12 +6905,12 @@
         <v>13</v>
       </c>
       <c r="K142" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="10" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>13</v>
@@ -6928,13 +6928,13 @@
         <v>13</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J143" s="5" t="s">
         <v>13</v>
@@ -6945,7 +6945,7 @@
     </row>
     <row r="144" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="10" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>13</v>
@@ -6954,7 +6954,7 @@
         <v>13</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>13</v>
@@ -6980,7 +6980,7 @@
     </row>
     <row r="145" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="10" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>13</v>
@@ -7015,7 +7015,7 @@
     </row>
     <row r="146" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="10" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>13</v>
@@ -7050,7 +7050,7 @@
     </row>
     <row r="147" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="10" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>13</v>
@@ -7074,7 +7074,7 @@
         <v>12</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J147" s="5" t="s">
         <v>13</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="148" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="10" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>13</v>
@@ -7103,7 +7103,7 @@
         <v>13</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H148" s="5" t="s">
         <v>12</v>
@@ -7115,12 +7115,12 @@
         <v>13</v>
       </c>
       <c r="K148" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="10" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>13</v>
@@ -7129,7 +7129,7 @@
         <v>13</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>13</v>
@@ -7138,7 +7138,7 @@
         <v>13</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>12</v>
@@ -7155,10 +7155,10 @@
     </row>
     <row r="150" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="10" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>13</v>
@@ -7173,13 +7173,13 @@
         <v>13</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H150" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J150" s="5" t="s">
         <v>13</v>
@@ -7190,7 +7190,7 @@
     </row>
     <row r="151" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="10" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>13</v>
@@ -7199,7 +7199,7 @@
         <v>13</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>13</v>
@@ -7225,7 +7225,7 @@
     </row>
     <row r="152" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="10" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>13</v>
@@ -7260,10 +7260,10 @@
     </row>
     <row r="153" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="10" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>13</v>
@@ -7295,16 +7295,16 @@
     </row>
     <row r="154" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="10" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>13</v>
@@ -7330,7 +7330,7 @@
     </row>
     <row r="155" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="10" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>13</v>
@@ -7339,7 +7339,7 @@
         <v>13</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>13</v>
@@ -7365,7 +7365,7 @@
     </row>
     <row r="156" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="10" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>13</v>
@@ -7400,16 +7400,16 @@
     </row>
     <row r="157" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="10" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>13</v>
@@ -7435,10 +7435,10 @@
     </row>
     <row r="158" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="10" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>13</v>
@@ -7470,7 +7470,7 @@
     </row>
     <row r="159" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="10" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>13</v>
@@ -7479,7 +7479,7 @@
         <v>13</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>13</v>
@@ -7488,7 +7488,7 @@
         <v>13</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H159" s="5" t="s">
         <v>12</v>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="160" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="10" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>12</v>
@@ -7514,7 +7514,7 @@
         <v>13</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>13</v>
@@ -7540,7 +7540,7 @@
     </row>
     <row r="161" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="10" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>12</v>
@@ -7558,13 +7558,13 @@
         <v>13</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H161" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J161" s="5" t="s">
         <v>13</v>
@@ -7575,7 +7575,7 @@
     </row>
     <row r="162" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="10" t="s">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>13</v>
@@ -7587,7 +7587,7 @@
         <v>13</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>13</v>
@@ -7610,10 +7610,10 @@
     </row>
     <row r="163" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="10" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>13</v>
@@ -7622,7 +7622,7 @@
         <v>13</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>13</v>
@@ -7634,7 +7634,7 @@
         <v>12</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J163" s="5" t="s">
         <v>13</v>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="164" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="10" t="s">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>13</v>
@@ -7654,22 +7654,22 @@
         <v>13</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J164" s="5" t="s">
         <v>13</v>
@@ -7680,7 +7680,7 @@
     </row>
     <row r="165" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="10" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>12</v>
@@ -7692,7 +7692,7 @@
         <v>12</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>13</v>
@@ -7704,7 +7704,7 @@
         <v>12</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J165" s="5" t="s">
         <v>13</v>
@@ -7715,42 +7715,42 @@
     </row>
     <row r="166" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="10" t="s">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H166" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J166" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K166" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="10" t="s">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>12</v>
@@ -7759,10 +7759,10 @@
         <v>13</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>13</v>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="168" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="10" t="s">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>12</v>
@@ -7794,10 +7794,10 @@
         <v>13</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>13</v>
@@ -7809,7 +7809,7 @@
         <v>12</v>
       </c>
       <c r="I168" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J168" s="5" t="s">
         <v>13</v>
@@ -7820,7 +7820,7 @@
     </row>
     <row r="169" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="10" t="s">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>12</v>
@@ -7832,13 +7832,13 @@
         <v>13</v>
       </c>
       <c r="E169" s="5" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H169" s="5" t="s">
         <v>12</v>
@@ -7855,7 +7855,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K169">
-    <sortCondition ref="E3:E169"/>
+    <sortCondition ref="E169"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>

--- a/doc/Help_text_progress.xlsx
+++ b/doc/Help_text_progress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teddy/GitHub/PsPM/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Teddy/GitHub/PsPM/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6507F369-2092-E640-888E-C9D325E59E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80627461-B49B-A34D-BA29-5C570FF6D260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="2500" windowWidth="25900" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="460" windowWidth="25900" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Sorting Help Text" sheetId="1" r:id="rId1"/>
@@ -1946,10 +1946,10 @@
   <dimension ref="A1:K169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I101" sqref="I101"/>
+      <selection pane="bottomRight" activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5487,7 +5487,7 @@
         <v>12</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>13</v>
@@ -5499,7 +5499,7 @@
         <v>12</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J102" s="5" t="s">
         <v>13</v>
@@ -5522,7 +5522,7 @@
         <v>12</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>13</v>
@@ -5534,7 +5534,7 @@
         <v>12</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J103" s="5" t="s">
         <v>13</v>
@@ -5557,7 +5557,7 @@
         <v>12</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>13</v>
@@ -5569,7 +5569,7 @@
         <v>12</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J104" s="5" t="s">
         <v>12</v>
@@ -5592,7 +5592,7 @@
         <v>12</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>13</v>
@@ -5604,7 +5604,7 @@
         <v>12</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J105" s="5" t="s">
         <v>13</v>
@@ -6397,10 +6397,10 @@
         <v>12</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>12</v>
@@ -6409,13 +6409,13 @@
         <v>12</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K128" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6423,28 +6423,28 @@
         <v>129</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J129" s="5" t="s">
         <v>13</v>
@@ -6464,10 +6464,10 @@
         <v>13</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>13</v>
@@ -6502,10 +6502,10 @@
         <v>12</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>12</v>
@@ -6514,10 +6514,10 @@
         <v>12</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K131" s="5" t="s">
         <v>13</v>

--- a/doc/Help_text_progress.xlsx
+++ b/doc/Help_text_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Teddy/GitHub/PsPM/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80627461-B49B-A34D-BA29-5C570FF6D260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FE4076-04C3-594C-8895-7F0FDCFF6527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="460" windowWidth="25900" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19260" yWindow="6280" windowWidth="25900" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Sorting Help Text" sheetId="1" r:id="rId1"/>
@@ -1946,10 +1946,10 @@
   <dimension ref="A1:K169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G130" sqref="G130"/>
+      <selection pane="bottomRight" activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5440,7 +5440,7 @@
     </row>
     <row r="101" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="10" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>12</v>
@@ -5452,10 +5452,10 @@
         <v>12</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>12</v>
@@ -5467,15 +5467,15 @@
         <v>12</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K101" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="10" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>12</v>
@@ -5487,10 +5487,10 @@
         <v>12</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>12</v>
@@ -5510,7 +5510,7 @@
     </row>
     <row r="103" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="10" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>12</v>
@@ -5522,10 +5522,10 @@
         <v>12</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>12</v>
@@ -5537,7 +5537,7 @@
         <v>12</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K103" s="5" t="s">
         <v>13</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="104" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="10" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>12</v>
@@ -5557,7 +5557,7 @@
         <v>12</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>13</v>
@@ -5572,7 +5572,7 @@
         <v>12</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K104" s="5" t="s">
         <v>13</v>
@@ -5580,7 +5580,7 @@
     </row>
     <row r="105" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="10" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>12</v>
@@ -5592,13 +5592,13 @@
         <v>12</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>12</v>
@@ -5610,12 +5610,12 @@
         <v>13</v>
       </c>
       <c r="K105" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="10" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>12</v>
@@ -5627,7 +5627,7 @@
         <v>12</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>13</v>
@@ -5639,7 +5639,7 @@
         <v>12</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J106" s="5" t="s">
         <v>13</v>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="107" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="10" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>12</v>
@@ -5685,7 +5685,7 @@
     </row>
     <row r="108" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>12</v>
@@ -5712,7 +5712,7 @@
         <v>13</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K108" s="5" t="s">
         <v>13</v>
@@ -5720,7 +5720,7 @@
     </row>
     <row r="109" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>12</v>
@@ -5747,7 +5747,7 @@
         <v>13</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K109" s="5" t="s">
         <v>13</v>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="110" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>12</v>
@@ -5790,7 +5790,7 @@
     </row>
     <row r="111" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>12</v>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="112" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>12</v>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="113" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>12</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="114" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>12</v>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="115" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>12</v>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="116" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>12</v>
@@ -6000,7 +6000,7 @@
     </row>
     <row r="117" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>12</v>
@@ -6035,7 +6035,7 @@
     </row>
     <row r="118" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>12</v>
@@ -6070,7 +6070,7 @@
     </row>
     <row r="119" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>12</v>
@@ -6088,10 +6088,10 @@
         <v>13</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I119" s="5" t="s">
         <v>13</v>
@@ -6105,7 +6105,7 @@
     </row>
     <row r="120" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>12</v>
@@ -6140,7 +6140,7 @@
     </row>
     <row r="121" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>12</v>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="122" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>12</v>
@@ -6193,10 +6193,10 @@
         <v>13</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I122" s="5" t="s">
         <v>13</v>
@@ -6210,7 +6210,7 @@
     </row>
     <row r="123" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>12</v>
@@ -6245,7 +6245,7 @@
     </row>
     <row r="124" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>12</v>
@@ -6263,7 +6263,7 @@
         <v>13</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>12</v>
@@ -6280,7 +6280,7 @@
     </row>
     <row r="125" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>12</v>
@@ -6298,7 +6298,7 @@
         <v>13</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>12</v>
@@ -6315,7 +6315,7 @@
     </row>
     <row r="126" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>12</v>
@@ -6350,7 +6350,7 @@
     </row>
     <row r="127" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>12</v>
@@ -6385,7 +6385,7 @@
     </row>
     <row r="128" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>12</v>
@@ -6397,10 +6397,10 @@
         <v>12</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>12</v>
@@ -6409,21 +6409,21 @@
         <v>12</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K128" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="10" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>13</v>
@@ -6432,10 +6432,10 @@
         <v>12</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>12</v>
@@ -6444,7 +6444,7 @@
         <v>12</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J129" s="5" t="s">
         <v>13</v>
@@ -6455,31 +6455,31 @@
     </row>
     <row r="130" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>12</v>
+        <v>138</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H130" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J130" s="5" t="s">
         <v>13</v>
@@ -6490,22 +6490,22 @@
     </row>
     <row r="131" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>12</v>
@@ -6514,18 +6514,18 @@
         <v>12</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K131" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="10" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>13</v>
@@ -6552,7 +6552,7 @@
         <v>13</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K132" s="5" t="s">
         <v>13</v>
@@ -6560,7 +6560,7 @@
     </row>
     <row r="133" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="10" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>13</v>
@@ -6595,7 +6595,7 @@
     </row>
     <row r="134" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="10" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>13</v>
@@ -6604,7 +6604,7 @@
         <v>13</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>13</v>
@@ -6613,7 +6613,7 @@
         <v>13</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H134" s="5" t="s">
         <v>12</v>
@@ -6630,7 +6630,7 @@
     </row>
     <row r="135" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="10" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>13</v>
@@ -6639,7 +6639,7 @@
         <v>13</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>13</v>
@@ -6654,20 +6654,20 @@
         <v>12</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J135" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K135" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B136" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B136" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C136" s="5" t="s">
@@ -6683,7 +6683,7 @@
         <v>13</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H136" s="5" t="s">
         <v>12</v>
@@ -6695,14 +6695,14 @@
         <v>13</v>
       </c>
       <c r="K136" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B137" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C137" s="5" t="s">
@@ -6718,7 +6718,7 @@
         <v>13</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H137" s="5" t="s">
         <v>12</v>
@@ -6735,9 +6735,9 @@
     </row>
     <row r="138" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B138" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C138" s="5" t="s">
@@ -6770,7 +6770,7 @@
     </row>
     <row r="139" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="10" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>13</v>
@@ -6805,7 +6805,7 @@
     </row>
     <row r="140" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="10" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>13</v>
@@ -6829,7 +6829,7 @@
         <v>12</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J140" s="5" t="s">
         <v>13</v>
@@ -6840,7 +6840,7 @@
     </row>
     <row r="141" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="10" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>13</v>
@@ -6849,7 +6849,7 @@
         <v>13</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>13</v>
@@ -6858,7 +6858,7 @@
         <v>13</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H141" s="5" t="s">
         <v>12</v>
@@ -6870,15 +6870,15 @@
         <v>13</v>
       </c>
       <c r="K141" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="10" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>13</v>
@@ -6893,7 +6893,7 @@
         <v>13</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H142" s="5" t="s">
         <v>12</v>
@@ -6910,7 +6910,7 @@
     </row>
     <row r="143" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="10" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>13</v>
@@ -6928,13 +6928,13 @@
         <v>13</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J143" s="5" t="s">
         <v>13</v>
@@ -6945,7 +6945,7 @@
     </row>
     <row r="144" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="10" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>13</v>
@@ -6954,7 +6954,7 @@
         <v>13</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>13</v>
@@ -6980,10 +6980,10 @@
     </row>
     <row r="145" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="10" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>13</v>
@@ -7015,16 +7015,16 @@
     </row>
     <row r="146" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="10" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>13</v>
@@ -7050,7 +7050,7 @@
     </row>
     <row r="147" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="10" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>13</v>
@@ -7059,7 +7059,7 @@
         <v>13</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>13</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="148" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="10" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>13</v>
@@ -7094,7 +7094,7 @@
         <v>13</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>13</v>
@@ -7120,7 +7120,7 @@
     </row>
     <row r="149" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="10" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>13</v>
@@ -7155,7 +7155,7 @@
     </row>
     <row r="150" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="10" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>12</v>
@@ -7190,7 +7190,7 @@
     </row>
     <row r="151" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="10" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>13</v>
@@ -7199,7 +7199,7 @@
         <v>13</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>13</v>
@@ -7208,7 +7208,7 @@
         <v>13</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H151" s="5" t="s">
         <v>12</v>
@@ -7225,16 +7225,16 @@
     </row>
     <row r="152" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="10" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>13</v>
@@ -7260,7 +7260,7 @@
     </row>
     <row r="153" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="10" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>12</v>
@@ -7269,7 +7269,7 @@
         <v>13</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>13</v>
@@ -7278,13 +7278,13 @@
         <v>13</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H153" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J153" s="5" t="s">
         <v>13</v>
@@ -7295,7 +7295,7 @@
     </row>
     <row r="154" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="10" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>12</v>
@@ -7304,10 +7304,10 @@
         <v>13</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>13</v>
@@ -7319,10 +7319,10 @@
         <v>12</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J154" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K154" s="5" t="s">
         <v>13</v>
@@ -7330,19 +7330,19 @@
     </row>
     <row r="155" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="10" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>13</v>
@@ -7354,7 +7354,7 @@
         <v>12</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J155" s="5" t="s">
         <v>13</v>
@@ -7365,19 +7365,19 @@
     </row>
     <row r="156" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="10" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>13</v>
@@ -7389,7 +7389,7 @@
         <v>12</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J156" s="5" t="s">
         <v>13</v>
@@ -7400,19 +7400,19 @@
     </row>
     <row r="157" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="10" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>13</v>
@@ -7424,7 +7424,7 @@
         <v>12</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J157" s="5" t="s">
         <v>13</v>
@@ -7435,7 +7435,7 @@
     </row>
     <row r="158" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="10" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>12</v>
@@ -7447,7 +7447,7 @@
         <v>12</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>13</v>
@@ -7459,10 +7459,10 @@
         <v>12</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J158" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K158" s="5" t="s">
         <v>13</v>
@@ -7470,31 +7470,31 @@
     </row>
     <row r="159" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="10" t="s">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H159" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J159" s="5" t="s">
         <v>13</v>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="160" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="10" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>12</v>
@@ -7514,10 +7514,10 @@
         <v>13</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>13</v>
@@ -7529,7 +7529,7 @@
         <v>12</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J160" s="5" t="s">
         <v>13</v>
@@ -7540,10 +7540,10 @@
     </row>
     <row r="161" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="10" t="s">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>13</v>
@@ -7552,19 +7552,19 @@
         <v>13</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H161" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J161" s="5" t="s">
         <v>13</v>
@@ -7575,10 +7575,10 @@
     </row>
     <row r="162" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="10" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>13</v>
@@ -7599,7 +7599,7 @@
         <v>12</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J162" s="5" t="s">
         <v>13</v>
@@ -7610,16 +7610,16 @@
     </row>
     <row r="163" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>180</v>
@@ -7628,10 +7628,10 @@
         <v>13</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I163" s="5" t="s">
         <v>12</v>
@@ -7645,10 +7645,10 @@
     </row>
     <row r="164" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>13</v>
@@ -7663,10 +7663,10 @@
         <v>13</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I164" s="5" t="s">
         <v>12</v>
@@ -7680,7 +7680,7 @@
     </row>
     <row r="165" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="10" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>12</v>
@@ -7710,12 +7710,12 @@
         <v>13</v>
       </c>
       <c r="K165" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>12</v>
@@ -7745,12 +7745,12 @@
         <v>13</v>
       </c>
       <c r="K166" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>12</v>
@@ -7785,22 +7785,22 @@
     </row>
     <row r="168" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="10" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="E168" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="G168" s="5" t="s">
         <v>12</v>
@@ -7812,10 +7812,10 @@
         <v>12</v>
       </c>
       <c r="J168" s="5" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="K168" s="5" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/doc/Help_text_progress.xlsx
+++ b/doc/Help_text_progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Teddy/GitHub/PsPM/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FE4076-04C3-594C-8895-7F0FDCFF6527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7160C037-5703-6D43-A0C0-50220A2CAD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19260" yWindow="6280" windowWidth="25900" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18580" yWindow="11700" windowWidth="25900" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Sorting Help Text" sheetId="1" r:id="rId1"/>
@@ -1946,10 +1946,10 @@
   <dimension ref="A1:K169"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F154" sqref="F154"/>
+      <selection pane="bottomRight" activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="107" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="10" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>12</v>
@@ -5662,10 +5662,10 @@
         <v>12</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>12</v>
@@ -5674,7 +5674,7 @@
         <v>12</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J107" s="5" t="s">
         <v>13</v>
@@ -5685,22 +5685,22 @@
     </row>
     <row r="108" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="10" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>12</v>
@@ -5709,18 +5709,18 @@
         <v>12</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="K108" s="5" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="10" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>12</v>
@@ -5747,7 +5747,7 @@
         <v>13</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K109" s="5" t="s">
         <v>13</v>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="110" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>12</v>
@@ -5790,7 +5790,7 @@
     </row>
     <row r="111" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>12</v>
@@ -5817,7 +5817,7 @@
         <v>13</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K111" s="5" t="s">
         <v>13</v>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="112" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>12</v>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="113" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>12</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="114" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>12</v>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="115" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>12</v>
@@ -5965,7 +5965,7 @@
     </row>
     <row r="116" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>12</v>
@@ -6000,7 +6000,7 @@
     </row>
     <row r="117" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>12</v>
@@ -6035,7 +6035,7 @@
     </row>
     <row r="118" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>12</v>
@@ -6070,7 +6070,7 @@
     </row>
     <row r="119" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>12</v>
@@ -6105,7 +6105,7 @@
     </row>
     <row r="120" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>12</v>
@@ -6123,10 +6123,10 @@
         <v>13</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I120" s="5" t="s">
         <v>13</v>
@@ -6140,7 +6140,7 @@
     </row>
     <row r="121" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>12</v>
@@ -6158,10 +6158,10 @@
         <v>13</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I121" s="5" t="s">
         <v>13</v>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="122" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>12</v>
@@ -6210,7 +6210,7 @@
     </row>
     <row r="123" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>12</v>
@@ -6228,10 +6228,10 @@
         <v>13</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I123" s="5" t="s">
         <v>13</v>
@@ -6245,7 +6245,7 @@
     </row>
     <row r="124" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>12</v>
@@ -6263,10 +6263,10 @@
         <v>13</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I124" s="5" t="s">
         <v>13</v>
@@ -6280,7 +6280,7 @@
     </row>
     <row r="125" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>12</v>
@@ -6298,7 +6298,7 @@
         <v>13</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>12</v>
@@ -6315,7 +6315,7 @@
     </row>
     <row r="126" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>12</v>
@@ -6350,7 +6350,7 @@
     </row>
     <row r="127" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>12</v>
@@ -6368,7 +6368,7 @@
         <v>13</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>12</v>
@@ -6385,7 +6385,7 @@
     </row>
     <row r="128" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>12</v>
@@ -6420,10 +6420,10 @@
     </row>
     <row r="129" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="10" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>13</v>
@@ -6455,16 +6455,16 @@
     </row>
     <row r="130" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="10" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>13</v>
@@ -6473,7 +6473,7 @@
         <v>13</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H130" s="5" t="s">
         <v>12</v>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="131" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>13</v>
@@ -6499,7 +6499,7 @@
         <v>13</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>13</v>
@@ -6520,12 +6520,12 @@
         <v>13</v>
       </c>
       <c r="K131" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>13</v>
@@ -6534,7 +6534,7 @@
         <v>13</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>13</v>
@@ -6543,7 +6543,7 @@
         <v>13</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H132" s="5" t="s">
         <v>12</v>
@@ -6560,7 +6560,7 @@
     </row>
     <row r="133" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>13</v>
@@ -6569,7 +6569,7 @@
         <v>13</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>13</v>
@@ -6590,12 +6590,12 @@
         <v>13</v>
       </c>
       <c r="K133" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>13</v>
@@ -6630,7 +6630,7 @@
     </row>
     <row r="135" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>13</v>
@@ -6654,7 +6654,7 @@
         <v>12</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J135" s="5" t="s">
         <v>13</v>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="136" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>13</v>
@@ -6683,7 +6683,7 @@
         <v>13</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H136" s="5" t="s">
         <v>12</v>
@@ -6695,12 +6695,12 @@
         <v>13</v>
       </c>
       <c r="K136" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>13</v>
@@ -6718,13 +6718,13 @@
         <v>13</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H137" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J137" s="5" t="s">
         <v>13</v>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="138" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="10" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>13</v>
@@ -6753,7 +6753,7 @@
         <v>13</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H138" s="5" t="s">
         <v>12</v>
@@ -6765,12 +6765,12 @@
         <v>13</v>
       </c>
       <c r="K138" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="10" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>13</v>
@@ -6788,7 +6788,7 @@
         <v>13</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>12</v>
@@ -6805,7 +6805,7 @@
     </row>
     <row r="140" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>13</v>
@@ -6840,16 +6840,16 @@
     </row>
     <row r="141" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B141" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B141" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>13</v>
@@ -6875,10 +6875,10 @@
     </row>
     <row r="142" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>13</v>
@@ -7190,10 +7190,10 @@
     </row>
     <row r="151" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>13</v>
+        <v>156</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>13</v>
@@ -7202,19 +7202,19 @@
         <v>13</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H151" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J151" s="5" t="s">
         <v>13</v>
@@ -7225,7 +7225,7 @@
     </row>
     <row r="152" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="10" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>12</v>
@@ -7237,30 +7237,30 @@
         <v>13</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="H152" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J152" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K152" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="10" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>12</v>
@@ -7269,16 +7269,16 @@
         <v>13</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H153" s="5" t="s">
         <v>12</v>
@@ -7287,7 +7287,7 @@
         <v>12</v>
       </c>
       <c r="J153" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K153" s="5" t="s">
         <v>13</v>
@@ -7295,7 +7295,7 @@
     </row>
     <row r="154" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="10" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>12</v>
@@ -7322,7 +7322,7 @@
         <v>12</v>
       </c>
       <c r="J154" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K154" s="5" t="s">
         <v>13</v>
@@ -7330,7 +7330,7 @@
     </row>
     <row r="155" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>12</v>
@@ -7365,7 +7365,7 @@
     </row>
     <row r="156" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>12</v>
@@ -7400,7 +7400,7 @@
     </row>
     <row r="157" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>12</v>
@@ -7427,7 +7427,7 @@
         <v>12</v>
       </c>
       <c r="J157" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K157" s="5" t="s">
         <v>13</v>
@@ -7435,7 +7435,7 @@
     </row>
     <row r="158" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>12</v>
@@ -7462,7 +7462,7 @@
         <v>12</v>
       </c>
       <c r="J158" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K158" s="5" t="s">
         <v>13</v>
@@ -7470,7 +7470,7 @@
     </row>
     <row r="159" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="10" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>12</v>
@@ -7479,7 +7479,7 @@
         <v>13</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>180</v>
@@ -7505,16 +7505,16 @@
     </row>
     <row r="160" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="10" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>180</v>
@@ -7529,7 +7529,7 @@
         <v>12</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J160" s="5" t="s">
         <v>13</v>
@@ -7540,10 +7540,10 @@
     </row>
     <row r="161" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="10" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>13</v>
@@ -7564,7 +7564,7 @@
         <v>12</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J161" s="5" t="s">
         <v>13</v>
@@ -7575,16 +7575,16 @@
     </row>
     <row r="162" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>180</v>
@@ -7593,10 +7593,10 @@
         <v>13</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I162" s="5" t="s">
         <v>12</v>
@@ -7610,10 +7610,10 @@
     </row>
     <row r="163" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>13</v>
@@ -7628,10 +7628,10 @@
         <v>13</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I163" s="5" t="s">
         <v>12</v>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="164" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="10" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>12</v>
@@ -7675,12 +7675,12 @@
         <v>13</v>
       </c>
       <c r="K164" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>12</v>
@@ -7710,12 +7710,12 @@
         <v>13</v>
       </c>
       <c r="K165" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>12</v>
@@ -7750,22 +7750,22 @@
     </row>
     <row r="167" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="10" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="G167" s="5" t="s">
         <v>12</v>
@@ -7780,7 +7780,7 @@
         <v>13</v>
       </c>
       <c r="K167" s="5" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7855,7 +7855,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K169">
-    <sortCondition ref="E169"/>
+    <sortCondition ref="E140:E169"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
